--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4851.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4851.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,556 +438,44 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_NUMBER</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INNING_NUMBER</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_DATE</t>
+          <t>BATTING_HAND</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_INNING</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OPPONENT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VENUE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DISMISSAL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RUNS_SCORED</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BALLS_FACED</t>
+          <t>BOWL_STYLE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>4851</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blair Marshall Tickner</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29/03/2022</t>
+          <t>Right Handed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Bay Oval</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>did not bat</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>03/04/2022</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Seddon Park</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>not out</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1*</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10/07/2022</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>The Village</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>not out</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0*</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12/07/2022</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>The Village</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>did not bat</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15/07/2022</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>The Village</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>did not bat</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>31/07/2022</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Grange Cricket Club</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>did not bat</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>18/01/2023</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Rajiv Gandhi International Stadium</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>not out</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1*</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21/01/2023</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Shaheed Veer Narayan Sing International Stadium</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>lbw b Kuldeep Yadav</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>24/01/2023</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Holkar Cricket Stadium</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>not out</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0*</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>25/03/2023</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4735</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sri Lanka</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Eden Park</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>not out</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>6*</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>Right Arm Medium Fast</t>
         </is>
       </c>
     </row>
@@ -1001,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,32 +506,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>INNING_NUMBER</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>MATCH_DATE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MATCH_INNING</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>OPPONENT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>VENUE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OVERS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>WICKETS_RUNS</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DISMISSAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RUNS_SCORED</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BALLS_FACED</t>
         </is>
       </c>
     </row>
@@ -1052,34 +556,45 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>29/03/2022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Bay Oval</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4/50</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>did not bat</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1091,32 +606,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>03/04/2022</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Seddon Park</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1/38</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>not out</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1*</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1128,32 +658,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>10/07/2022</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Ireland</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>The Village</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2/71</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>not out</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0*</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1163,34 +708,45 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>12/07/2022</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Ireland</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>The Village</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0/42</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>did not bat</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1200,34 +756,45 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Ireland</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>The Village</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1/71</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>did not bat</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1237,34 +804,45 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>31/07/2022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Grange Cricket Club</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1/62</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>did not bat</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1276,32 +854,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Rajiv Gandhi International Stadium</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1/69</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>not out</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1*</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1313,32 +906,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>21/01/2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Shaheed Veer Narayan Sing International Stadium</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0/19</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>lbw b Kuldeep Yadav</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1350,32 +958,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>24/01/2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Holkar Cricket Stadium</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3/76</t>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>not out</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0*</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1387,14 +1010,503 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4735</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>25/03/2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Eden Park</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>not out</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6*</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>2nd</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Seddon Park</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>did not bat</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_INNING</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>OPPONENT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>VENUE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OVERS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>WICKETS_RUNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bay Oval</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4/50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Seddon Park</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1/38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The Village</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2/71</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The Village</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0/42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The Village</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1/71</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Grange Cricket Club</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1/62</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Rajiv Gandhi International Stadium</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1/69</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Shaheed Veer Narayan Sing International Stadium</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0/19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Holkar Cricket Stadium</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3/76</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Sri Lanka</t>
@@ -1413,6 +1525,43 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>2/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Seddon Park</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0/35</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4851.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4851.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -708,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -756,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>15/07/2022</t>
@@ -804,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>31/07/2022</t>
@@ -1060,7 +1057,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>31/03/2023</t>
@@ -1568,4 +1564,255 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.19%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4851.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4851.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -708,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -755,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>15/07/2022</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>31/07/2022</t>
@@ -1057,6 +1060,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>31/03/2023</t>
@@ -1564,255 +1568,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.19%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4745</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>